--- a/documentacao/cronograma.xlsx
+++ b/documentacao/cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Inovaprint\INOVAPRINT\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INOVAPRINT\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA5532-D02E-4840-B694-84E1F62D7BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CA342-C8E7-45BE-87F5-7387EC209FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3BE0ABD8-0F10-40E3-B353-550AB6977C1C}"/>
   </bookViews>
@@ -814,91 +814,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,10 +866,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,13 +1327,13 @@
   <dimension ref="A1:BI276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1796875" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" customWidth="1"/>
@@ -1348,24 +1348,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="42"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1417,18 +1417,18 @@
       <c r="BI1" s="1"/>
     </row>
     <row r="2" spans="1:61" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="BI2" s="1"/>
     </row>
     <row r="3" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1492,28 +1492,28 @@
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="24">
         <v>23</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="25">
         <v>24</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="26">
         <v>30</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="24">
         <v>7</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="24">
         <v>8</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="24">
         <v>14</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="25">
         <v>15</v>
       </c>
       <c r="M3" s="1"/>
@@ -1567,24 +1567,24 @@
       <c r="BI3" s="1"/>
     </row>
     <row r="4" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="51"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1636,20 +1636,20 @@
       <c r="BI4" s="1"/>
     </row>
     <row r="5" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="49"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1701,20 +1701,20 @@
       <c r="BI5" s="1"/>
     </row>
     <row r="6" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="49"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1766,22 +1766,22 @@
       <c r="BI6" s="1"/>
     </row>
     <row r="7" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="49"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1833,22 +1833,22 @@
       <c r="BI7" s="1"/>
     </row>
     <row r="8" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="49"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1900,22 +1900,22 @@
       <c r="BI8" s="1"/>
     </row>
     <row r="9" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="49"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1967,22 +1967,22 @@
       <c r="BI9" s="1"/>
     </row>
     <row r="10" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="49"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2034,22 +2034,22 @@
       <c r="BI10" s="1"/>
     </row>
     <row r="11" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="49"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2101,22 +2101,22 @@
       <c r="BI11" s="1"/>
     </row>
     <row r="12" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="49"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2168,22 +2168,22 @@
       <c r="BI12" s="1"/>
     </row>
     <row r="13" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="50"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2235,26 +2235,26 @@
       <c r="BI13" s="1"/>
     </row>
     <row r="14" spans="1:61" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="51"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2306,20 +2306,20 @@
       <c r="BI14" s="1"/>
     </row>
     <row r="15" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="49"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2371,20 +2371,20 @@
       <c r="BI15" s="1"/>
     </row>
     <row r="16" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="49"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2436,8 +2436,8 @@
       <c r="BI16" s="1"/>
     </row>
     <row r="17" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2446,14 +2446,14 @@
       <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="49"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2505,22 +2505,22 @@
       <c r="BI17" s="1"/>
     </row>
     <row r="18" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="49"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2572,22 +2572,22 @@
       <c r="BI18" s="1"/>
     </row>
     <row r="19" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="49"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2639,22 +2639,22 @@
       <c r="BI19" s="1"/>
     </row>
     <row r="20" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="49"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2706,22 +2706,22 @@
       <c r="BI20" s="1"/>
     </row>
     <row r="21" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="50"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2773,26 +2773,26 @@
       <c r="BI21" s="1"/>
     </row>
     <row r="22" spans="1:61" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2844,20 +2844,20 @@
       <c r="BI22" s="1"/>
     </row>
     <row r="23" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2909,20 +2909,20 @@
       <c r="BI23" s="1"/>
     </row>
     <row r="24" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2974,24 +2974,24 @@
       <c r="BI24" s="1"/>
     </row>
     <row r="25" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="49"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3043,20 +3043,20 @@
       <c r="BI25" s="1"/>
     </row>
     <row r="26" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3108,7 +3108,7 @@
       <c r="BI26" s="1"/>
     </row>
     <row r="27" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="17" t="s">
         <v>47</v>
       </c>
@@ -3118,17 +3118,17 @@
       <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="61"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63" t="s">
+      <c r="N27" s="34"/>
+      <c r="O27" s="35" t="s">
         <v>56</v>
       </c>
       <c r="P27" s="1"/>
@@ -18867,11 +18867,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A14:A21"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="D25:D26"/>
@@ -18882,9 +18877,14 @@
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>